--- a/data/cluster_annotations/marker_proteins_other_supp.xlsx
+++ b/data/cluster_annotations/marker_proteins_other_supp.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maksimovicjovana/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BE9907-9725-BF42-B255-20D315CC5748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{633F97A8-1920-8347-B0BC-686D5B290E10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="760" windowWidth="25020" windowHeight="16560" xr2:uid="{5CDBA149-51B6-40E4-8FD7-FE6A57589D4A}"/>
+    <workbookView xWindow="5000" yWindow="1960" windowWidth="26840" windowHeight="15940" xr2:uid="{F759D041-C0C1-524A-A0D6-7217970E1552}"/>
   </bookViews>
   <sheets>
-    <sheet name="Others" sheetId="3" r:id="rId1"/>
+    <sheet name="Others" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Others!$A$1:$A$38</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,127 +39,781 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="256">
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>DNA_ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Clone</t>
+  </si>
+  <si>
+    <t>Barcode</t>
+  </si>
+  <si>
+    <t>Ensembl ID</t>
+  </si>
+  <si>
+    <t>Gene Name</t>
+  </si>
+  <si>
+    <t>CD101</t>
+  </si>
+  <si>
+    <t>A0944</t>
+  </si>
+  <si>
+    <t>anti-human CD101 (BB27)</t>
+  </si>
+  <si>
+    <t>BB27</t>
+  </si>
+  <si>
+    <t>CTACTTCCCTGTCAA</t>
+  </si>
+  <si>
+    <t>ENSG00000134256</t>
+  </si>
+  <si>
+    <t>CD107a</t>
+  </si>
+  <si>
+    <t>A0155</t>
+  </si>
+  <si>
+    <t>anti-human CD107a (LAMP-1)</t>
+  </si>
+  <si>
+    <t>H4A3</t>
+  </si>
+  <si>
+    <t>CAGCCCACTGCAATA</t>
+  </si>
+  <si>
+    <t>ENSG00000185896</t>
+  </si>
+  <si>
+    <t>LAMP1</t>
+  </si>
+  <si>
+    <t>CD116</t>
+  </si>
+  <si>
+    <t>A0940</t>
+  </si>
+  <si>
+    <t>anti-human CD116</t>
+  </si>
+  <si>
+    <t>4H1</t>
+  </si>
+  <si>
+    <t>ATGGACAGTTCGTGT</t>
+  </si>
+  <si>
+    <t>ENSG00000198223</t>
+  </si>
+  <si>
+    <t>CSF2RA</t>
+  </si>
+  <si>
+    <t>CD11a</t>
+  </si>
+  <si>
+    <t>A0185</t>
+  </si>
+  <si>
+    <t>anti-human CD11a</t>
+  </si>
+  <si>
+    <t>TS2/4</t>
+  </si>
+  <si>
+    <t>TATATCCTTGTGAGC</t>
+  </si>
+  <si>
+    <t>ENSG00000005844</t>
+  </si>
+  <si>
+    <t>ITGAL</t>
+  </si>
+  <si>
+    <t>CD11b</t>
+  </si>
+  <si>
+    <t>A0161</t>
+  </si>
+  <si>
+    <t>anti-human CD11b</t>
+  </si>
+  <si>
+    <t>ICRF44</t>
+  </si>
+  <si>
+    <t>GACAAGTGATCTGCA</t>
+  </si>
+  <si>
+    <t>ENSG00000169896</t>
+  </si>
+  <si>
+    <t>ITGAM</t>
+  </si>
+  <si>
+    <t>CD11c</t>
+  </si>
+  <si>
+    <t>A0053</t>
+  </si>
+  <si>
+    <t>anti-human CD11c</t>
+  </si>
+  <si>
+    <t>S-HCL-3</t>
+  </si>
+  <si>
+    <t>TACGCCTATAACTTG</t>
+  </si>
+  <si>
+    <t>ENSG00000140678</t>
+  </si>
+  <si>
+    <t>ITGAX</t>
+  </si>
+  <si>
+    <t>CD123</t>
+  </si>
+  <si>
+    <t>A0064</t>
+  </si>
+  <si>
+    <t>anti-human CD123</t>
+  </si>
+  <si>
+    <t>6H6</t>
+  </si>
+  <si>
+    <t>CTTCACTCTGTCAGG</t>
+  </si>
+  <si>
+    <t>ENSG00000185291</t>
+  </si>
+  <si>
+    <t>IL3RA</t>
+  </si>
   <si>
     <t>CD141</t>
   </si>
   <si>
+    <t>A0163</t>
+  </si>
+  <si>
+    <t>anti-human CD141 (Thrombomodulin)</t>
+  </si>
+  <si>
+    <t>M80</t>
+  </si>
+  <si>
+    <t>GGATAACCGCGCTTT</t>
+  </si>
+  <si>
+    <t>ENSG00000178726</t>
+  </si>
+  <si>
+    <t>THBD</t>
+  </si>
+  <si>
+    <t>CD142</t>
+  </si>
+  <si>
+    <t>A0822</t>
+  </si>
+  <si>
+    <t>anti-human CD142</t>
+  </si>
+  <si>
+    <t>NY2</t>
+  </si>
+  <si>
+    <t>CACTGCCGTCGATTA</t>
+  </si>
+  <si>
+    <t>ENSG00000117525</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>CD162</t>
+  </si>
+  <si>
+    <t>A0871</t>
+  </si>
+  <si>
+    <t>anti-human CD162</t>
+  </si>
+  <si>
+    <t>KPL-1</t>
+  </si>
+  <si>
+    <t>ATATGTCAGAGCACC</t>
+  </si>
+  <si>
+    <t>ENSG00000110876</t>
+  </si>
+  <si>
+    <t>SELPLG</t>
+  </si>
+  <si>
+    <t>CD172a</t>
+  </si>
+  <si>
+    <t>A0408</t>
+  </si>
+  <si>
+    <t>anti-human CD172a (SIRPα)</t>
+  </si>
+  <si>
+    <t>15-414</t>
+  </si>
+  <si>
+    <t>CGTGTTTAACTTGAG</t>
+  </si>
+  <si>
+    <t>ENSG00000198053</t>
+  </si>
+  <si>
+    <t>SIRPA</t>
+  </si>
+  <si>
+    <t>CD19</t>
+  </si>
+  <si>
+    <t>A0050</t>
+  </si>
+  <si>
+    <t>anti-human CD19</t>
+  </si>
+  <si>
+    <t>HIB19</t>
+  </si>
+  <si>
+    <t>CTGGGCAATTACTCG</t>
+  </si>
+  <si>
+    <t>ENSG00000177455</t>
+  </si>
+  <si>
+    <t>CD196</t>
+  </si>
+  <si>
+    <t>A0143</t>
+  </si>
+  <si>
+    <t>anti-human CD196 (CCR6)</t>
+  </si>
+  <si>
+    <t>G034E3</t>
+  </si>
+  <si>
+    <t>GATCCCTTTGTCACT</t>
+  </si>
+  <si>
+    <t>ENSG00000112486</t>
+  </si>
+  <si>
+    <t>CCR6</t>
+  </si>
+  <si>
+    <t>CD1c</t>
+  </si>
+  <si>
+    <t>A0160</t>
+  </si>
+  <si>
+    <t>anti-human CD1c</t>
+  </si>
+  <si>
+    <t>L161</t>
+  </si>
+  <si>
+    <t>GAGCTACTTCACTCG</t>
+  </si>
+  <si>
+    <t>ENSG00000158481</t>
+  </si>
+  <si>
+    <t>CD1C</t>
+  </si>
+  <si>
+    <t>CD20</t>
+  </si>
+  <si>
+    <t>A0100</t>
+  </si>
+  <si>
+    <t>anti-human CD20</t>
+  </si>
+  <si>
+    <t>2H7</t>
+  </si>
+  <si>
+    <t>TTCTGGGTCCCTAGA</t>
+  </si>
+  <si>
+    <t>ENSG00000156738</t>
+  </si>
+  <si>
+    <t>MS4A1</t>
+  </si>
+  <si>
+    <t>CD26</t>
+  </si>
+  <si>
+    <t>A0396</t>
+  </si>
+  <si>
+    <t>anti-human CD26</t>
+  </si>
+  <si>
+    <t>BA5b</t>
+  </si>
+  <si>
+    <t>GGTGGCTAGATAATG</t>
+  </si>
+  <si>
+    <t>ENSG00000197635</t>
+  </si>
+  <si>
+    <t>DPP4</t>
+  </si>
+  <si>
+    <t>CD27</t>
+  </si>
+  <si>
+    <t>A0154</t>
+  </si>
+  <si>
+    <t>anti-human CD27</t>
+  </si>
+  <si>
+    <t>O323</t>
+  </si>
+  <si>
+    <t>GCACTCCTGCATGTA</t>
+  </si>
+  <si>
+    <t>ENSG00000139193</t>
+  </si>
+  <si>
+    <t>CD304</t>
+  </si>
+  <si>
+    <t>A0406</t>
+  </si>
+  <si>
+    <t>anti-human CD304 (Neuropilin-1)</t>
+  </si>
+  <si>
+    <t>12C2</t>
+  </si>
+  <si>
+    <t>GGACTAAGTTTCGTT</t>
+  </si>
+  <si>
+    <t>ENSG00000099250</t>
+  </si>
+  <si>
+    <t>NRP1</t>
+  </si>
+  <si>
+    <t>CD31</t>
+  </si>
+  <si>
+    <t>A0124</t>
+  </si>
+  <si>
+    <t>anti-human CD31</t>
+  </si>
+  <si>
+    <t>WM59</t>
+  </si>
+  <si>
+    <t>ACCTTTATGCCACGG</t>
+  </si>
+  <si>
+    <t>ENSG00000261371</t>
+  </si>
+  <si>
+    <t>PECAM1</t>
+  </si>
+  <si>
+    <t>CD32</t>
+  </si>
+  <si>
+    <t>A0142</t>
+  </si>
+  <si>
+    <t>anti-human CD32</t>
+  </si>
+  <si>
+    <t>FUN-2</t>
+  </si>
+  <si>
+    <t>GCTTCCGAATTACCG</t>
+  </si>
+  <si>
+    <t>ENSG00000143226</t>
+  </si>
+  <si>
+    <t>FCGR2A</t>
+  </si>
+  <si>
+    <t>CD38</t>
+  </si>
+  <si>
+    <t>A0389</t>
+  </si>
+  <si>
+    <t>anti-human CD38</t>
+  </si>
+  <si>
+    <t>HIT2</t>
+  </si>
+  <si>
+    <t>TGTACCCGCTTGTGA</t>
+  </si>
+  <si>
+    <t>ENSG00000004468</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>A0072</t>
+  </si>
+  <si>
+    <t>anti-human CD4</t>
+  </si>
+  <si>
+    <t>RPA-T4</t>
+  </si>
+  <si>
+    <t>TGTTCCCGCTCAACT</t>
+  </si>
+  <si>
+    <t>ENSG00000010610</t>
+  </si>
+  <si>
+    <t>CD44</t>
+  </si>
+  <si>
+    <t>A0073</t>
+  </si>
+  <si>
+    <t>anti-mouse/human CD44</t>
+  </si>
+  <si>
+    <t>IM7</t>
+  </si>
+  <si>
+    <t>TGGCTTCAGGTCCTA</t>
+  </si>
+  <si>
+    <t>ENSG00000026508</t>
+  </si>
+  <si>
+    <t>CD45RA</t>
+  </si>
+  <si>
+    <t>A0063</t>
+  </si>
+  <si>
+    <t>anti-human CD45RA</t>
+  </si>
+  <si>
+    <t>HI100</t>
+  </si>
+  <si>
+    <t>TCAATCCTTCCGCTT</t>
+  </si>
+  <si>
+    <t>ENSG00000081237</t>
+  </si>
+  <si>
+    <t>PTPRC</t>
+  </si>
+  <si>
+    <t>CD49b</t>
+  </si>
+  <si>
+    <t>A0371</t>
+  </si>
+  <si>
+    <t>anti-human CD49b</t>
+  </si>
+  <si>
+    <t>P1E6-C5</t>
+  </si>
+  <si>
+    <t>GCTTTCTTCAGTATG</t>
+  </si>
+  <si>
+    <t>ENSG00000164171</t>
+  </si>
+  <si>
+    <t>ITGA2</t>
+  </si>
+  <si>
+    <t>CD49d</t>
+  </si>
+  <si>
+    <t>A0576</t>
+  </si>
+  <si>
+    <t>anti-human CD49d</t>
+  </si>
+  <si>
+    <t>9F10</t>
+  </si>
+  <si>
+    <t>CCATTCAACTTCCGG</t>
+  </si>
+  <si>
+    <t>ENSG00000115232</t>
+  </si>
+  <si>
+    <t>ITGA4</t>
+  </si>
+  <si>
+    <t>CD49f</t>
+  </si>
+  <si>
+    <t>A0070</t>
+  </si>
+  <si>
+    <t>anti-human/mouse CD49f</t>
+  </si>
+  <si>
+    <t>GoH3</t>
+  </si>
+  <si>
+    <t>TTCCGAGGATGATCT</t>
+  </si>
+  <si>
+    <t>ENSG00000091409</t>
+  </si>
+  <si>
+    <t>ITGA6</t>
+  </si>
+  <si>
+    <t>CD54</t>
+  </si>
+  <si>
+    <t>A0217</t>
+  </si>
+  <si>
+    <t>anti-human CD54</t>
+  </si>
+  <si>
+    <t>HA58</t>
+  </si>
+  <si>
+    <t>CTGATAGACTTGAGT</t>
+  </si>
+  <si>
+    <t>ENSG00000090339</t>
+  </si>
+  <si>
+    <t>ICAM1</t>
+  </si>
+  <si>
+    <t>CD62L</t>
+  </si>
+  <si>
+    <t>A0147</t>
+  </si>
+  <si>
+    <t>anti-human CD62L</t>
+  </si>
+  <si>
+    <t>DREG-56</t>
+  </si>
+  <si>
+    <t>GTCCCTGCAACTTGA</t>
+  </si>
+  <si>
+    <t>ENSG00000188404</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>CD63</t>
+  </si>
+  <si>
+    <t>A0404</t>
+  </si>
+  <si>
+    <t>anti-human CD63</t>
+  </si>
+  <si>
+    <t>H5C6</t>
+  </si>
+  <si>
+    <t>GAGATGTCTGCAACT</t>
+  </si>
+  <si>
+    <t>ENSG00000135404</t>
+  </si>
+  <si>
+    <t>CD86</t>
+  </si>
+  <si>
+    <t>A0006</t>
+  </si>
+  <si>
+    <t>anti-human CD86</t>
+  </si>
+  <si>
+    <t>IT2.2</t>
+  </si>
+  <si>
+    <t>GTCTTTGTCAGTGCA</t>
+  </si>
+  <si>
+    <t>ENSG00000114013</t>
+  </si>
+  <si>
     <t>CD9</t>
   </si>
   <si>
-    <t>CD101</t>
-  </si>
-  <si>
-    <t>CD172a</t>
-  </si>
-  <si>
-    <t>CD54</t>
-  </si>
-  <si>
-    <t>CD32</t>
-  </si>
-  <si>
-    <t>CD11b</t>
-  </si>
-  <si>
-    <t>CD11c</t>
-  </si>
-  <si>
-    <t>CD123</t>
-  </si>
-  <si>
-    <t>CD63</t>
-  </si>
-  <si>
-    <t>CD86</t>
-  </si>
-  <si>
-    <t>CD107a</t>
-  </si>
-  <si>
-    <t>CD4</t>
+    <t>A0579</t>
+  </si>
+  <si>
+    <t>anti-human CD9</t>
+  </si>
+  <si>
+    <t>HI9a</t>
+  </si>
+  <si>
+    <t>GAGTCACCAATCTGC</t>
+  </si>
+  <si>
+    <t>ENSG00000010278</t>
+  </si>
+  <si>
+    <t>CD95</t>
+  </si>
+  <si>
+    <t>A0156</t>
+  </si>
+  <si>
+    <t>anti-human CD95 (Fas)</t>
+  </si>
+  <si>
+    <t>DX2</t>
+  </si>
+  <si>
+    <t>CCAGCTCATTAGAGC</t>
+  </si>
+  <si>
+    <t>ENSG00000026103</t>
+  </si>
+  <si>
+    <t>FAS</t>
+  </si>
+  <si>
+    <t>CLEC12A</t>
+  </si>
+  <si>
+    <t>A0853</t>
+  </si>
+  <si>
+    <t>anti-human CLEC12A</t>
+  </si>
+  <si>
+    <t>50C1</t>
+  </si>
+  <si>
+    <t>CATTAGAGTCTGCCA</t>
+  </si>
+  <si>
+    <t>ENSG00000172322</t>
+  </si>
+  <si>
+    <t>FCER1a</t>
+  </si>
+  <si>
+    <t>A0352</t>
+  </si>
+  <si>
+    <t>anti-human FcεRIα</t>
+  </si>
+  <si>
+    <t>AER-37 (CRA-1)</t>
+  </si>
+  <si>
+    <t>CTCGTTTCCGTATCG</t>
+  </si>
+  <si>
+    <t>ENSG00000179639</t>
+  </si>
+  <si>
+    <t>FCER1A</t>
   </si>
   <si>
     <t>HLADR</t>
   </si>
   <si>
-    <t>CLEC12A</t>
-  </si>
-  <si>
-    <t>CD31</t>
-  </si>
-  <si>
-    <t>CD304</t>
-  </si>
-  <si>
-    <t>CD142</t>
-  </si>
-  <si>
-    <t>ADT</t>
-  </si>
-  <si>
-    <t>CD44</t>
-  </si>
-  <si>
-    <t>CD11a</t>
-  </si>
-  <si>
-    <t>CD45RA</t>
-  </si>
-  <si>
-    <t>CD19</t>
-  </si>
-  <si>
-    <t>CD20</t>
-  </si>
-  <si>
-    <t>CD27</t>
-  </si>
-  <si>
-    <t>CD49b</t>
-  </si>
-  <si>
-    <t>CD38</t>
-  </si>
-  <si>
-    <t>CD95</t>
-  </si>
-  <si>
-    <t>CD49f</t>
-  </si>
-  <si>
-    <t>CD1c</t>
-  </si>
-  <si>
-    <t>CD49d</t>
-  </si>
-  <si>
-    <t>CD196</t>
-  </si>
-  <si>
-    <t>CD62L</t>
-  </si>
-  <si>
-    <t>CD116</t>
-  </si>
-  <si>
-    <t>CD26</t>
-  </si>
-  <si>
-    <t>CD162</t>
+    <t>A0159</t>
+  </si>
+  <si>
+    <t>anti-human HLA-DR</t>
+  </si>
+  <si>
+    <t>L243</t>
+  </si>
+  <si>
+    <t>AATAGCGAGCAAGTA</t>
+  </si>
+  <si>
+    <t>ENSG00000204287</t>
+  </si>
+  <si>
+    <t>HLA-DRA</t>
   </si>
   <si>
     <t>IgE</t>
   </si>
   <si>
-    <t>FcεRIα</t>
+    <t>A0868</t>
+  </si>
+  <si>
+    <t>anti-human IgE</t>
+  </si>
+  <si>
+    <t>MHE-18</t>
+  </si>
+  <si>
+    <t>GGATGTACCGCGTAT</t>
+  </si>
+  <si>
+    <t>ENSG00000211891</t>
+  </si>
+  <si>
+    <t>IGHE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +829,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -184,7 +857,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -192,13 +865,126 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,203 +1318,896 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C5821C7-6347-4F9F-B73B-29938A6EC903}">
-  <dimension ref="A1:A38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B424AB5-39F2-1248-B2FA-7988EB720997}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="G3" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+        <v>216</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>235</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>249</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
